--- a/medicine/Enfance/Nahoko_Uehashi/Nahoko_Uehashi.xlsx
+++ b/medicine/Enfance/Nahoko_Uehashi/Nahoko_Uehashi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nahoko Uehashi (上橋 菜穂子, Uehashi Nahoko?), née le 15 juillet 1962 à Tokyo, est une femme de lettres japonaise, auteure de littérature d'enfance et de jeunesse.
 Elle enseigne l'ethnologie dans une université privée de Tokyo.
@@ -516,11 +528,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Série La Charmeuse de bêtes
-Le Livre des Tôda, Milan Jeunesse, 2009 ((ja) Kemono no sōja i Tōda hen, 2006), trad. Yukari Maeda et Patrick Honnoré, 365 p.  (ISBN 978-2-7459-3338-6)
-Le Livre des Ōjū, Milan Jeunesse, 2009 ((ja) Kemono no sōja II Ōjū, 2006), trad. Yukari Maeda et Patrick Honnoré, 434 p.  (ISBN 978-2-7459-3339-3)
-Romans indépendants
-Le Gardien de l'esprit sacré, Milan Jeunesse, 2011 ((ja) Seirei no moribito, 1996), trad. Yoshimi Minemori et Patrick Honnoré, 286 p.  (ISBN 978-2-7459-4183-1)</t>
+          <t>Série La Charmeuse de bêtes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le Livre des Tôda, Milan Jeunesse, 2009 ((ja) Kemono no sōja i Tōda hen, 2006), trad. Yukari Maeda et Patrick Honnoré, 365 p.  (ISBN 978-2-7459-3338-6)
+Le Livre des Ōjū, Milan Jeunesse, 2009 ((ja) Kemono no sōja II Ōjū, 2006), trad. Yukari Maeda et Patrick Honnoré, 434 p.  (ISBN 978-2-7459-3339-3)</t>
         </is>
       </c>
     </row>
@@ -545,10 +560,48 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Œuvres traduites</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Gardien de l'esprit sacré, Milan Jeunesse, 2011 ((ja) Seirei no moribito, 1996), trad. Yoshimi Minemori et Patrick Honnoré, 286 p.  (ISBN 978-2-7459-4183-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nahoko_Uehashi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nahoko_Uehashi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix Noma en 2004 pour Kitsune fue no kanata (狐笛のかなた?).
 Prix Hans-Christian-Andersen en 2014.</t>
